--- a/Tools/ToolBinary/GameDataDocument.xlsx
+++ b/Tools/ToolBinary/GameDataDocument.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t>BOOL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -321,12 +321,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>如果manager为map时，
-需要指定key的字段名称，
-多个用"#"分割</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>大写，
 该行第一列的值标记为该值，
 表明忽略导出该行</t>
@@ -346,6 +340,18 @@
   <si>
     <t>第1行1列：必填。
 程序填写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果manager为list时，key不填写；
+如果manager为map时，
+需要指定key的字段名称，
+多个用"#"分割</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前只支持uint类型为key，否则有问题；
+后期可扩展指定的字段名的类型，需要进一步泛型，导出代码做调整。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -485,49 +491,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1089,7 +1092,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E6"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1102,10 +1105,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -1114,60 +1117,62 @@
       <c r="D1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="24" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="24" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="17"/>
+      <c r="C5" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -1176,8 +1181,8 @@
       <c r="B7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>84</v>
+      <c r="C7" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -1188,46 +1193,46 @@
       <c r="B8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>85</v>
+      <c r="C8" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1246,21 +1251,22 @@
       <c r="B14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>83</v>
+      <c r="C14" s="13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="E1:E6"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tools/ToolBinary/GameDataDocument.xlsx
+++ b/Tools/ToolBinary/GameDataDocument.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF301AE1-6C8B-4288-8645-344B51841F25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据类别" sheetId="3" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>BOOL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -270,42 +271,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>描述信息，选填</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>keys</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>group_map</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>two_map</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>one_map</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>数据以数组的结构保存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据表单第1行1列必填
-格式：manager:list,keys:key1#key2
-1. manager和keys用","分割
-2. 存在两个key时，key之间用"#"分割
-3. ":"分割变量名和值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -343,22 +309,40 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>如果manager为list时，key不填写；
-如果manager为map时，
-需要指定key的字段名称，
-多个用"#"分割</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前只支持uint类型为key，否则有问题；
-后期可扩展指定的字段名的类型，需要进一步泛型，导出代码做调整。</t>
+    <t>List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group&lt;ColName&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map&lt;ColName&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map&lt;ColName1,ColName2&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据表单第1行1列必填
+格式. 存在两个key时，key之间用","分割</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：
+1. List&lt;string&gt; 时，string不能存在";"，否则数据会出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述信息，选填，不导出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -468,7 +452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -508,6 +492,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -526,11 +513,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -812,7 +805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1088,91 +1081,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="26" style="4" customWidth="1"/>
     <col min="4" max="4" width="48.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="20"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="18"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -1182,9 +1167,9 @@
         <v>66</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -1194,12 +1179,12 @@
         <v>68</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -1210,7 +1195,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="16" t="s">
         <v>54</v>
       </c>
@@ -1219,7 +1204,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="16" t="s">
         <v>55</v>
       </c>
@@ -1228,7 +1213,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="16" t="s">
         <v>56</v>
       </c>
@@ -1241,7 +1226,7 @@
         <v>69</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -1252,23 +1237,36 @@
         <v>62</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="E1:E6"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A1:A6"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>